--- a/化工/eta/PX-WTI价差_月度数据.xlsx
+++ b/化工/eta/PX-WTI价差_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>376.4</v>
+        <v>397.5</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>358.2</v>
+        <v>359.4</v>
       </c>
       <c r="C3" t="n">
-        <v>408.8</v>
+        <v>405.1</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>363.3</v>
       </c>
       <c r="C4" t="n">
-        <v>414.4</v>
+        <v>405.6</v>
       </c>
     </row>
     <row r="5">
@@ -575,7 +575,7 @@
         <v>359</v>
       </c>
       <c r="C11" t="n">
-        <v>358.9</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12">
@@ -666,7 +666,7 @@
         <v>429.6</v>
       </c>
       <c r="C18" t="n">
-        <v>429.7</v>
+        <v>429.6</v>
       </c>
     </row>
     <row r="19">
